--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H2">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I2">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J2">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>585.8634409991223</v>
+        <v>336.3527355828107</v>
       </c>
       <c r="R2">
-        <v>5272.7709689921</v>
+        <v>3027.174620245296</v>
       </c>
       <c r="S2">
-        <v>0.6457758250903008</v>
+        <v>0.4354320378321938</v>
       </c>
       <c r="T2">
-        <v>0.6964330676608809</v>
+        <v>0.5066986670282305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H3">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I3">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J3">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>54.817977790884</v>
+        <v>49.752706409934</v>
       </c>
       <c r="R3">
-        <v>493.361800117956</v>
+        <v>447.774357689406</v>
       </c>
       <c r="S3">
-        <v>0.06042385027015697</v>
+        <v>0.06440834293262561</v>
       </c>
       <c r="T3">
-        <v>0.06516373913136625</v>
+        <v>0.0749499776634158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H4">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I4">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J4">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>8.147298153907112</v>
+        <v>15.38678795917178</v>
       </c>
       <c r="R4">
-        <v>73.32568338516401</v>
+        <v>138.481091632546</v>
       </c>
       <c r="S4">
-        <v>0.00898046851775469</v>
+        <v>0.01991926845828939</v>
       </c>
       <c r="T4">
-        <v>0.009684932442271751</v>
+        <v>0.02317943077004903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H5">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I5">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J5">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>28.39307665718534</v>
+        <v>3.897845678129001</v>
       </c>
       <c r="R5">
-        <v>170.358459943112</v>
+        <v>23.38707406877401</v>
       </c>
       <c r="S5">
-        <v>0.03129664905165758</v>
+        <v>0.005046032653316283</v>
       </c>
       <c r="T5">
-        <v>0.02250112238097906</v>
+        <v>0.003914607098343751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H6">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I6">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J6">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>6.491476737321334</v>
+        <v>19.12646446102445</v>
       </c>
       <c r="R6">
-        <v>58.423290635892</v>
+        <v>172.13818014922</v>
       </c>
       <c r="S6">
-        <v>0.007155317182702409</v>
+        <v>0.02476054009894762</v>
       </c>
       <c r="T6">
-        <v>0.007716608925301956</v>
+        <v>0.02881306742034177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J7">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>33.65187728211389</v>
+        <v>21.28698543890933</v>
       </c>
       <c r="R7">
-        <v>302.8668955390251</v>
+        <v>191.582868950184</v>
       </c>
       <c r="S7">
-        <v>0.03709323247860281</v>
+        <v>0.02755748495075484</v>
       </c>
       <c r="T7">
-        <v>0.04000297422239255</v>
+        <v>0.03206778481600652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J8">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>3.148733531361</v>
@@ -948,10 +948,10 @@
         <v>28.338601782249</v>
       </c>
       <c r="S8">
-        <v>0.003470733710122719</v>
+        <v>0.004076254815574475</v>
       </c>
       <c r="T8">
-        <v>0.003742991965418961</v>
+        <v>0.004743410456891934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J9">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>0.4679791543034444</v>
+        <v>0.973794164839889</v>
       </c>
       <c r="R9">
-        <v>4.211812388731</v>
+        <v>8.764147483559</v>
       </c>
       <c r="S9">
-        <v>0.0005158362910988002</v>
+        <v>0.001260644355666128</v>
       </c>
       <c r="T9">
-        <v>0.0005563005561109605</v>
+        <v>0.001466972475872014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J10">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>1.630892567216333</v>
+        <v>0.2466856232035</v>
       </c>
       <c r="R10">
-        <v>9.785355403298002</v>
+        <v>1.480113739221</v>
       </c>
       <c r="S10">
-        <v>0.001797673176929544</v>
+        <v>0.0003193517169684473</v>
       </c>
       <c r="T10">
-        <v>0.001292459908034555</v>
+        <v>0.0002477464146593167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J11">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>0.3728691078103333</v>
+        <v>1.210469627292222</v>
       </c>
       <c r="R11">
-        <v>3.355821970293</v>
+        <v>10.89422664563</v>
       </c>
       <c r="S11">
-        <v>0.000410999968416297</v>
+        <v>0.001567037222493649</v>
       </c>
       <c r="T11">
-        <v>0.0004432404523236248</v>
+        <v>0.001823512288563272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H12">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I12">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J12">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>139.2818409400875</v>
+        <v>253.401399002244</v>
       </c>
       <c r="R12">
-        <v>835.691045640525</v>
+        <v>1520.408394013464</v>
       </c>
       <c r="S12">
-        <v>0.1535252747633314</v>
+        <v>0.3280457563869293</v>
       </c>
       <c r="T12">
-        <v>0.1103789415384774</v>
+        <v>0.2544910694721433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H13">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I13">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J13">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>13.0323012651315</v>
+        <v>37.4826902673465</v>
       </c>
       <c r="R13">
-        <v>78.19380759078899</v>
+        <v>224.896141604079</v>
       </c>
       <c r="S13">
-        <v>0.01436502862845179</v>
+        <v>0.04852395262450697</v>
       </c>
       <c r="T13">
-        <v>0.01032791934502464</v>
+        <v>0.03764387241108182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H14">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I14">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J14">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>1.9369201184985</v>
+        <v>11.5920971721815</v>
       </c>
       <c r="R14">
-        <v>11.621520710991</v>
+        <v>69.55258303308899</v>
       </c>
       <c r="S14">
-        <v>0.002134996144364717</v>
+        <v>0.01500677699465025</v>
       </c>
       <c r="T14">
-        <v>0.001534982529534567</v>
+        <v>0.01164194522362268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H15">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I15">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J15">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>6.750105417094501</v>
+        <v>2.93655868807275</v>
       </c>
       <c r="R15">
-        <v>27.000421668378</v>
+        <v>11.746234752291</v>
       </c>
       <c r="S15">
-        <v>0.007440394109140599</v>
+        <v>0.003801579706333442</v>
       </c>
       <c r="T15">
-        <v>0.003566243745694159</v>
+        <v>0.001966124270394499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H16">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I16">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J16">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>1.5432689038455</v>
+        <v>14.409494377955</v>
       </c>
       <c r="R16">
-        <v>9.259613423072999</v>
+        <v>86.45696626773001</v>
       </c>
       <c r="S16">
-        <v>0.001701088820318667</v>
+        <v>0.01865409386444466</v>
       </c>
       <c r="T16">
-        <v>0.001223019361073686</v>
+        <v>0.0144714577316368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J17">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N17">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O17">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P17">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q17">
-        <v>18.58935753896944</v>
+        <v>0.9920110768106666</v>
       </c>
       <c r="R17">
-        <v>167.304217850725</v>
+        <v>8.928099691296</v>
       </c>
       <c r="S17">
-        <v>0.02049036833934238</v>
+        <v>0.001284227416730582</v>
       </c>
       <c r="T17">
-        <v>0.02209771491225172</v>
+        <v>0.00149441534770408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J18">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P18">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q18">
-        <v>1.739366066229</v>
+        <v>0.146736537684</v>
       </c>
       <c r="R18">
-        <v>15.654294596061</v>
+        <v>1.320628839156</v>
       </c>
       <c r="S18">
-        <v>0.001917239544146237</v>
+        <v>0.0001899606658987729</v>
       </c>
       <c r="T18">
-        <v>0.002067635494072271</v>
+        <v>0.0002210512958070326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H19">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I19">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J19">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N19">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O19">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P19">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q19">
-        <v>0.2585125265732222</v>
+        <v>0.04538052608844444</v>
       </c>
       <c r="R19">
-        <v>2.326612739159</v>
+        <v>0.408424734796</v>
       </c>
       <c r="S19">
-        <v>0.0002849488950177572</v>
+        <v>5.874825105361278E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003073014277919824</v>
+        <v>6.836350546759092E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H20">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I20">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J20">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N20">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O20">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P20">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q20">
-        <v>0.9009079875536666</v>
+        <v>0.011495985254</v>
       </c>
       <c r="R20">
-        <v>5.405447925321999</v>
+        <v>0.06897591152400001</v>
       </c>
       <c r="S20">
-        <v>0.0009930378963410745</v>
+        <v>1.488235342389731E-05</v>
       </c>
       <c r="T20">
-        <v>0.0007139571778959217</v>
+        <v>1.154542000733209E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H21">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I21">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J21">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N21">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O21">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P21">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q21">
-        <v>0.2059735658196666</v>
+        <v>0.05641002019111111</v>
       </c>
       <c r="R21">
-        <v>1.853762092377</v>
+        <v>0.50769018172</v>
       </c>
       <c r="S21">
-        <v>0.0002270371218029047</v>
+        <v>7.302669919841731E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002448468231030236</v>
+        <v>8.497888976090821E-05</v>
       </c>
     </row>
   </sheetData>
